--- a/data/trans_dic/P20D1_R_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P20D1_R_2023-Habitat-trans_dic.xlsx
@@ -567,7 +567,7 @@
         <v>0.05710752072810465</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.6616205811964945</v>
+        <v>0.6616205811964943</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.3257535376554482</v>
@@ -584,10 +584,10 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.4181661488370719</v>
+        <v>0.4130665171603814</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1731624070209295</v>
+        <v>0.1812822900336017</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2161263149119322</v>
+        <v>0.1824468305172425</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8431501502560091</v>
+        <v>0.8474674306800103</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.502304080294484</v>
+        <v>0.4909581403334325</v>
       </c>
     </row>
     <row r="7">
@@ -625,7 +625,7 @@
         <v>0.5354158489115635</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.3416002954734103</v>
+        <v>0.3416002954734102</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.03014097988125854</v>
+        <v>0.03435706337754735</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.27021671445839</v>
+        <v>0.2779819928970152</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1831337744827586</v>
+        <v>0.1771736903193506</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.4394500513784684</v>
+        <v>0.4503710883125678</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.7984274366159444</v>
+        <v>0.8059115020921963</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.5802021709939055</v>
+        <v>0.6074723793676809</v>
       </c>
     </row>
     <row r="10">
@@ -694,10 +694,10 @@
         <v>0</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1574327404963109</v>
+        <v>0.1661051170254772</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1150185471793064</v>
+        <v>0.110522139837697</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4762337619466153</v>
+        <v>0.4608524924595766</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.6950208311102897</v>
+        <v>0.7115637379023504</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.4493086622995077</v>
+        <v>0.4499439949250379</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.03464814334786477</v>
+        <v>0.03255949036237517</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.294100982410061</v>
+        <v>0.2734109023025612</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1883160979675462</v>
+        <v>0.1803646536148243</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3285402469160758</v>
+        <v>0.3184004585652604</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.6365227187906699</v>
+        <v>0.6273223419267844</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4230663288728362</v>
+        <v>0.4090568680781396</v>
       </c>
     </row>
     <row r="16">
@@ -784,13 +784,13 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.1280014271240324</v>
+        <v>0.1280014271240325</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.5148654427542919</v>
+        <v>0.514865442754292</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.3046049829183108</v>
+        <v>0.3046049829183109</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.06895801508824635</v>
+        <v>0.06923515605625745</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.4111081371078712</v>
+        <v>0.3962269262512342</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2310568457617186</v>
+        <v>0.2293884464550214</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2240352116699997</v>
+        <v>0.2294678950273249</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.6466812733474495</v>
+        <v>0.6389752093070827</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.4047251083641883</v>
+        <v>0.3878086550424156</v>
       </c>
     </row>
     <row r="19">
@@ -969,10 +969,10 @@
         <v>0</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>5570</v>
+        <v>5502</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>5190</v>
+        <v>5433</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>3599</v>
+        <v>3038</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>11230</v>
+        <v>11287</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>15054</v>
+        <v>14714</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>472</v>
+        <v>538</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>4176</v>
+        <v>4296</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>5696</v>
+        <v>5511</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>6878</v>
+        <v>7049</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>12338</v>
+        <v>12454</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>18047</v>
+        <v>18895</v>
       </c>
     </row>
     <row r="12">
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>1446</v>
+        <v>1526</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>2833</v>
+        <v>2723</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>7358</v>
+        <v>7121</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>6383</v>
+        <v>6535</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>11069</v>
+        <v>11084</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>708</v>
+        <v>666</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>5685</v>
+        <v>5285</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>7491</v>
+        <v>7174</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>6718</v>
+        <v>6511</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>12304</v>
+        <v>12126</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>16828</v>
+        <v>16271</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>4703</v>
+        <v>4722</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>23550</v>
+        <v>22698</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>28995</v>
+        <v>28785</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>15280</v>
+        <v>15650</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>37045</v>
+        <v>36604</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>50788</v>
+        <v>48665</v>
       </c>
     </row>
     <row r="24">
